--- a/Dataset/Authors/PRIAP.xlsx
+++ b/Dataset/Authors/PRIAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935F230E-D7AC-4E7A-95C8-F4B98860999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C209AF1D-B4F0-44DE-9933-43CD3CC0555C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F585A10-BEE5-45A4-B965-2C1D220D7995}"/>
   </bookViews>
@@ -28,6 +28,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -497,10 +500,10 @@
         <v>13</v>
       </c>
       <c r="B1" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C1" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.3">
@@ -591,8 +594,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B12">
-    <sortCondition ref="A12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B15">
+    <sortCondition ref="A6:A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
